--- a/TreatyData '50-'59 v1.xlsx
+++ b/TreatyData '50-'59 v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="460" windowWidth="18500" windowHeight="14240" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18500" windowHeight="14240" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CountryTreaties" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CountryNormalization!$A$1:$B$868</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CountryTreaties!$A$1:$D$1971</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CountryTreatiesClean!$A$1:$D$868</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$878</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$868</definedName>
     <definedName name="SRG" localSheetId="2">#REF!</definedName>
     <definedName name="SRG" localSheetId="1">#REF!</definedName>
     <definedName name="SRG">#REF!</definedName>
@@ -28684,7 +28684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D868"/>
   <sheetViews>
-    <sheetView topLeftCell="A790" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D807" sqref="D807"/>
     </sheetView>
   </sheetViews>
@@ -40844,8 +40844,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D868">
-    <sortState ref="A2:D1971">
-      <sortCondition ref="A1:A1971"/>
+    <sortState ref="A2:D868">
+      <sortCondition ref="A1:A868"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50424,7 +50424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -51108,10 +51108,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C878"/>
+  <dimension ref="A1:C868"/>
   <sheetViews>
-    <sheetView topLeftCell="A800" workbookViewId="0">
-      <selection activeCell="B818" sqref="B818"/>
+    <sheetView tabSelected="1" topLeftCell="A765" workbookViewId="0">
+      <selection activeCell="D705" sqref="D705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58785,7 +58785,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B698">
         <v>1950</v>
@@ -58796,7 +58796,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B699">
         <v>1951</v>
@@ -58807,7 +58807,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B700">
         <v>1952</v>
@@ -58818,7 +58818,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B701">
         <v>1953</v>
@@ -58829,7 +58829,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B702">
         <v>1954</v>
@@ -58840,7 +58840,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B703">
         <v>1955</v>
@@ -58851,7 +58851,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B704">
         <v>1956</v>
@@ -58862,7 +58862,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B705">
         <v>1957</v>
@@ -58873,7 +58873,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B706">
         <v>1958</v>
@@ -58884,7 +58884,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B707">
         <v>1959</v>
@@ -58895,7 +58895,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B708">
         <v>1950</v>
@@ -58906,7 +58906,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B709">
         <v>1951</v>
@@ -58917,7 +58917,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B710">
         <v>1952</v>
@@ -58928,7 +58928,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B711">
         <v>1953</v>
@@ -58939,7 +58939,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B712">
         <v>1954</v>
@@ -58950,7 +58950,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B713">
         <v>1955</v>
@@ -58961,7 +58961,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B714">
         <v>1956</v>
@@ -58972,7 +58972,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B715">
         <v>1957</v>
@@ -58983,7 +58983,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B716">
         <v>1958</v>
@@ -58994,18 +58994,18 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B717">
         <v>1959</v>
       </c>
       <c r="C717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B718">
         <v>1950</v>
@@ -59016,7 +59016,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B719">
         <v>1951</v>
@@ -59027,7 +59027,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B720">
         <v>1952</v>
@@ -59038,7 +59038,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B721">
         <v>1953</v>
@@ -59049,7 +59049,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B722">
         <v>1954</v>
@@ -59060,7 +59060,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B723">
         <v>1955</v>
@@ -59071,7 +59071,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B724">
         <v>1956</v>
@@ -59082,7 +59082,7 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B725">
         <v>1957</v>
@@ -59093,7 +59093,7 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B726">
         <v>1958</v>
@@ -59104,18 +59104,18 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B727">
         <v>1959</v>
       </c>
       <c r="C727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B728">
         <v>1950</v>
@@ -59126,7 +59126,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B729">
         <v>1951</v>
@@ -59137,7 +59137,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B730">
         <v>1952</v>
@@ -59148,7 +59148,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B731">
         <v>1953</v>
@@ -59159,73 +59159,73 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B732">
         <v>1954</v>
       </c>
       <c r="C732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B733">
         <v>1955</v>
       </c>
       <c r="C733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B734">
         <v>1956</v>
       </c>
       <c r="C734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B735">
         <v>1957</v>
       </c>
       <c r="C735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B736">
         <v>1958</v>
       </c>
       <c r="C736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B737">
         <v>1959</v>
       </c>
       <c r="C737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B738">
         <v>1950</v>
@@ -59236,7 +59236,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B739">
         <v>1951</v>
@@ -59247,7 +59247,7 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B740">
         <v>1952</v>
@@ -59258,7 +59258,7 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B741">
         <v>1953</v>
@@ -59269,73 +59269,73 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B742">
         <v>1954</v>
       </c>
       <c r="C742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B743">
         <v>1955</v>
       </c>
       <c r="C743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B744">
         <v>1956</v>
       </c>
       <c r="C744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B745">
         <v>1957</v>
       </c>
       <c r="C745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B746">
         <v>1958</v>
       </c>
       <c r="C746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B747">
         <v>1959</v>
       </c>
       <c r="C747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B748">
         <v>1950</v>
@@ -59346,7 +59346,7 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B749">
         <v>1951</v>
@@ -59357,7 +59357,7 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B750">
         <v>1952</v>
@@ -59368,7 +59368,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B751">
         <v>1953</v>
@@ -59379,7 +59379,7 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B752">
         <v>1954</v>
@@ -59390,7 +59390,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B753">
         <v>1955</v>
@@ -59401,7 +59401,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B754">
         <v>1956</v>
@@ -59412,7 +59412,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B755">
         <v>1957</v>
@@ -59423,7 +59423,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B756">
         <v>1958</v>
@@ -59434,7 +59434,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B757">
         <v>1959</v>
@@ -59445,7 +59445,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B758">
         <v>1950</v>
@@ -59456,7 +59456,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B759">
         <v>1951</v>
@@ -59467,7 +59467,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B760">
         <v>1952</v>
@@ -59478,7 +59478,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B761">
         <v>1953</v>
@@ -59489,7 +59489,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B762">
         <v>1954</v>
@@ -59500,7 +59500,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B763">
         <v>1955</v>
@@ -59511,7 +59511,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B764">
         <v>1956</v>
@@ -59522,7 +59522,7 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B765">
         <v>1957</v>
@@ -59533,7 +59533,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B766">
         <v>1958</v>
@@ -59544,7 +59544,7 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B767">
         <v>1959</v>
@@ -59555,7 +59555,7 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B768">
         <v>1950</v>
@@ -59566,7 +59566,7 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B769">
         <v>1951</v>
@@ -59577,7 +59577,7 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B770">
         <v>1952</v>
@@ -59588,7 +59588,7 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B771">
         <v>1953</v>
@@ -59599,7 +59599,7 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B772">
         <v>1954</v>
@@ -59610,7 +59610,7 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B773">
         <v>1955</v>
@@ -59621,7 +59621,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B774">
         <v>1956</v>
@@ -59632,7 +59632,7 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B775">
         <v>1957</v>
@@ -59643,7 +59643,7 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B776">
         <v>1958</v>
@@ -59654,7 +59654,7 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B777">
         <v>1959</v>
@@ -59665,7 +59665,7 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B778">
         <v>1950</v>
@@ -59676,7 +59676,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B779">
         <v>1951</v>
@@ -59687,7 +59687,7 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B780">
         <v>1952</v>
@@ -59698,7 +59698,7 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B781">
         <v>1953</v>
@@ -59709,7 +59709,7 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B782">
         <v>1954</v>
@@ -59720,7 +59720,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B783">
         <v>1955</v>
@@ -59731,7 +59731,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B784">
         <v>1956</v>
@@ -59742,7 +59742,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B785">
         <v>1957</v>
@@ -59753,7 +59753,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B786">
         <v>1958</v>
@@ -59764,7 +59764,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B787">
         <v>1959</v>
@@ -59775,7 +59775,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B788">
         <v>1950</v>
@@ -59786,7 +59786,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B789">
         <v>1951</v>
@@ -59797,7 +59797,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B790">
         <v>1952</v>
@@ -59808,7 +59808,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B791">
         <v>1953</v>
@@ -59819,7 +59819,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B792">
         <v>1954</v>
@@ -59830,7 +59830,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B793">
         <v>1955</v>
@@ -59841,7 +59841,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B794">
         <v>1956</v>
@@ -59852,7 +59852,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B795">
         <v>1957</v>
@@ -59863,7 +59863,7 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B796">
         <v>1958</v>
@@ -59874,7 +59874,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B797">
         <v>1959</v>
@@ -59885,10 +59885,10 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B798">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="C798">
         <v>0</v>
@@ -59896,10 +59896,10 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B799">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="C799">
         <v>0</v>
@@ -59907,10 +59907,10 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B800">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="C800">
         <v>0</v>
@@ -59918,10 +59918,10 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B801">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="C801">
         <v>0</v>
@@ -59929,10 +59929,10 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B802">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="C802">
         <v>0</v>
@@ -59940,10 +59940,10 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B803">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="C803">
         <v>0</v>
@@ -59951,10 +59951,10 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B804">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="C804">
         <v>0</v>
@@ -59962,10 +59962,10 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="B805">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="C805">
         <v>0</v>
@@ -59973,10 +59973,10 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="B806">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="C806">
         <v>0</v>
@@ -59984,10 +59984,10 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="B807">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="C807">
         <v>0</v>
@@ -59995,7 +59995,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B808">
         <v>1953</v>
@@ -60006,7 +60006,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B809">
         <v>1954</v>
@@ -60017,7 +60017,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B810">
         <v>1955</v>
@@ -60028,7 +60028,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B811">
         <v>1956</v>
@@ -60039,7 +60039,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B812">
         <v>1957</v>
@@ -60050,7 +60050,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B813">
         <v>1958</v>
@@ -60061,7 +60061,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B814">
         <v>1959</v>
@@ -60072,10 +60072,10 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B815">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="C815">
         <v>0</v>
@@ -60083,10 +60083,10 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B816">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="C816">
         <v>0</v>
@@ -60094,10 +60094,10 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B817">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="C817">
         <v>0</v>
@@ -60105,10 +60105,10 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B818">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="C818">
         <v>0</v>
@@ -60116,10 +60116,10 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B819">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="C819">
         <v>0</v>
@@ -60127,10 +60127,10 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B820">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="C820">
         <v>0</v>
@@ -60138,10 +60138,10 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B821">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C821">
         <v>0</v>
@@ -60149,10 +60149,10 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B822">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C822">
         <v>0</v>
@@ -60160,10 +60160,10 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B823">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C823">
         <v>0</v>
@@ -60171,10 +60171,10 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B824">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C824">
         <v>0</v>
@@ -60182,10 +60182,10 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B825">
-        <v>1954</v>
+        <v>1959</v>
       </c>
       <c r="C825">
         <v>0</v>
@@ -60193,10 +60193,10 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B826">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="C826">
         <v>0</v>
@@ -60204,10 +60204,10 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B827">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="C827">
         <v>0</v>
@@ -60215,10 +60215,10 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B828">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C828">
         <v>0</v>
@@ -60226,10 +60226,10 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="B829">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="C829">
         <v>0</v>
@@ -60237,10 +60237,10 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="B830">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="C830">
         <v>0</v>
@@ -60248,10 +60248,10 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B831">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="C831">
         <v>0</v>
@@ -60259,10 +60259,10 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B832">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C832">
         <v>0</v>
@@ -60270,10 +60270,10 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B833">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="C833">
         <v>0</v>
@@ -60281,10 +60281,10 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B834">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="C834">
         <v>0</v>
@@ -60292,10 +60292,10 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B835">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="C835">
         <v>0</v>
@@ -60303,7 +60303,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B836">
         <v>1957</v>
@@ -60314,7 +60314,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B837">
         <v>1958</v>
@@ -60325,7 +60325,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B838">
         <v>1959</v>
@@ -60336,7 +60336,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B839">
         <v>1950</v>
@@ -60347,7 +60347,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B840">
         <v>1951</v>
@@ -60358,7 +60358,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B841">
         <v>1952</v>
@@ -60369,7 +60369,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B842">
         <v>1953</v>
@@ -60380,7 +60380,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B843">
         <v>1954</v>
@@ -60391,7 +60391,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B844">
         <v>1955</v>
@@ -60402,7 +60402,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B845">
         <v>1956</v>
@@ -60413,7 +60413,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B846">
         <v>1957</v>
@@ -60424,7 +60424,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B847">
         <v>1958</v>
@@ -60435,7 +60435,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B848">
         <v>1959</v>
@@ -60446,7 +60446,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B849">
         <v>1950</v>
@@ -60457,7 +60457,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B850">
         <v>1951</v>
@@ -60468,7 +60468,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B851">
         <v>1952</v>
@@ -60479,7 +60479,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B852">
         <v>1953</v>
@@ -60490,7 +60490,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B853">
         <v>1954</v>
@@ -60501,7 +60501,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B854">
         <v>1955</v>
@@ -60512,51 +60512,51 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B855">
         <v>1956</v>
       </c>
       <c r="C855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B856">
         <v>1957</v>
       </c>
       <c r="C856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B857">
         <v>1958</v>
       </c>
       <c r="C857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B858">
         <v>1959</v>
       </c>
       <c r="C858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B859">
         <v>1950</v>
@@ -60567,7 +60567,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B860">
         <v>1951</v>
@@ -60578,7 +60578,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B861">
         <v>1952</v>
@@ -60589,7 +60589,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B862">
         <v>1953</v>
@@ -60600,7 +60600,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B863">
         <v>1954</v>
@@ -60611,7 +60611,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B864">
         <v>1955</v>
@@ -60622,160 +60622,54 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B865">
         <v>1956</v>
       </c>
       <c r="C865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B866">
         <v>1957</v>
       </c>
       <c r="C866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B867">
         <v>1958</v>
       </c>
       <c r="C867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B868">
         <v>1959</v>
       </c>
       <c r="C868">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A869">
-        <v>920</v>
-      </c>
-      <c r="B869">
-        <v>1950</v>
-      </c>
-      <c r="C869">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A870">
-        <v>920</v>
-      </c>
-      <c r="B870">
-        <v>1951</v>
-      </c>
-      <c r="C870">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A871">
-        <v>920</v>
-      </c>
-      <c r="B871">
-        <v>1952</v>
-      </c>
-      <c r="C871">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A872">
-        <v>920</v>
-      </c>
-      <c r="B872">
-        <v>1953</v>
-      </c>
-      <c r="C872">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A873">
-        <v>920</v>
-      </c>
-      <c r="B873">
-        <v>1954</v>
-      </c>
-      <c r="C873">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A874">
-        <v>920</v>
-      </c>
-      <c r="B874">
-        <v>1955</v>
-      </c>
-      <c r="C874">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A875">
-        <v>920</v>
-      </c>
-      <c r="B875">
-        <v>1956</v>
-      </c>
-      <c r="C875">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A876">
-        <v>920</v>
-      </c>
-      <c r="B876">
-        <v>1957</v>
-      </c>
-      <c r="C876">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A877">
-        <v>920</v>
-      </c>
-      <c r="B877">
-        <v>1958</v>
-      </c>
-      <c r="C877">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A878">
-        <v>920</v>
-      </c>
-      <c r="B878">
-        <v>1959</v>
-      </c>
-      <c r="C878">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C878"/>
+  <autoFilter ref="A1:C868">
+    <sortState ref="A2:C873">
+      <sortCondition ref="A1:A873"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -60784,7 +60678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
